--- a/Test case of water bottle.xlsx
+++ b/Test case of water bottle.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA_Big_Registance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Water Bottle" sheetId="1" r:id="rId4"/>
+    <sheet name="Water_bottle_test_case" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>TC No</t>
   </si>
@@ -251,9 +259,6 @@
   </si>
   <si>
     <t>Bottle slightly warped (Fail).</t>
-  </si>
-  <si>
-    <t>TC_16</t>
   </si>
   <si>
     <t>Extreme Cold Test</t>
@@ -271,19 +276,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -294,7 +301,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -304,7 +311,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -318,44 +331,42 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -545,27 +556,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.38"/>
-    <col customWidth="1" min="2" max="2" width="25.13"/>
-    <col customWidth="1" min="3" max="3" width="42.5"/>
-    <col customWidth="1" min="4" max="4" width="37.5"/>
-    <col customWidth="1" min="5" max="5" width="27.38"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -617,7 +633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -640,7 +656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -663,7 +679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -686,7 +702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -709,7 +725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -732,7 +748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -755,7 +771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -778,26 +794,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
@@ -806,44 +840,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>25</v>
@@ -852,67 +886,67 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>25</v>
@@ -921,30 +955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>